--- a/04.沟通汇报/2.汇报机制/1.日清/QDCH_daily_20170921.xlsx
+++ b/04.沟通汇报/2.汇报机制/1.日清/QDCH_daily_20170921.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/6.项目/1.项目文档/18.清算所项目/4.QSS_DOC/qss_doc/04.沟通汇报/2.汇报机制/1.日清/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Documents/6.项目/1.项目文档/18.清算所项目/4.QSS_DOC/qss_doc/04.沟通汇报/2.汇报机制/1.日清/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>满莉</t>
     <rPh sb="0" eb="1">
       <t>man'li</t>
@@ -86,344 +82,60 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>监控全景</t>
+    <t>郭海洋</t>
     <rPh sb="0" eb="1">
-      <t>jian'kong'quan'jing</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈力杰/郭海洋</t>
+      <t>guo'hai'yang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.部分页面展示细节沟通；2.客户信息，交易信息，资金信息，交割页面指标整理及原型图设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求文档整理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 配合前端切图，工商信息监控/业务异常监控页面搭框架；工商信息监控页面排版</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 完善工商信息监控页面排版</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.指标对比完成
+2.web前端修改</t>
+    <rPh sb="2" eb="3">
+      <t>zh'biao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dui'bi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>qian'duan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xiu'gai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户风险分析</t>
     <rPh sb="0" eb="1">
-      <t>chen'li'jie</t>
+      <t>ke'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>feng'xian</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>guo'hai'yang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标梳理</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'biao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shu'li</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：</t>
-    <rPh sb="0" eb="1">
-      <t>bei'zhu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.现在的页面开发先不执行联动操作，以构建页面内容为主。</t>
-    <rPh sb="2" eb="3">
-      <t>xian'zai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ye'mian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xian'bu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zhi'xing</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>lian'dong</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>cao'zuo</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>gou'jian</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ye'mian</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>nei'rong</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>wei'zhu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.页面主题开发有一定的周期，此部分计划时间为9人天</t>
-    <rPh sb="2" eb="3">
-      <t>ye'mian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhu'ti</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>kai'fa</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>you</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yi'ding</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>de</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zhou'qi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ci'bu'fen</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ji'hua</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>shi'jian</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ren'tian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>舆情界面开发</t>
-    <rPh sb="0" eb="1">
-      <t>yu'qing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'mian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易产品监控</t>
-    <rPh sb="0" eb="1">
-      <t>jiao'yi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chan'pin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jian'kong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标梳理、将已出的页面指标与用户核对</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'biao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shu'li</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jiang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>yi'chu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ye'mian</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zhi'biao</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>he'dui</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与业务用户钟沟通的指标已经梳理</t>
-    <rPh sb="0" eb="1">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ye'wu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gou'tong</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zhi'biao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yi'jing</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>shu'li</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新系统研究</t>
-    <rPh sb="0" eb="1">
-      <t>xin'xi'tong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yan'jiu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李鑫/陈力杰</t>
-    <rPh sb="0" eb="1">
-      <t>li'xin</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>chen'li'jie</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对用户的新业务系统（进行研究）</t>
-    <rPh sb="0" eb="1">
-      <t>dui</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>de</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xin'xi'tong</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ye'wu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xi'tog</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>yan'jiu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要业务用户or对系统熟悉的人讲解一下日常业务流</t>
-    <rPh sb="0" eb="1">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ye'wu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dui'xi'tong</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shu'xi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>de</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ren</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>jiang'jie</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>yi'xia</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ri'chang</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ye'wu</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>liu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>监控全景开发</t>
-    <rPh sb="0" eb="1">
-      <t>jian'kong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>quan'jing</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午部分时间web前端新页面的调整，</t>
-    <rPh sb="0" eb="1">
-      <t>shang'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu'fen</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi'jian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>qian'duan</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>xin'ye'mian</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>de</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>itaozheng</t>
+      <t>fen'xi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -837,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -882,10 +594,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -893,115 +605,87 @@
         <v>8</v>
       </c>
       <c r="C2" s="9">
-        <v>42999</v>
+        <v>43003</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9">
-        <v>42999</v>
+        <v>43003</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G3" s="8"/>
       <c r="H3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9">
+        <v>43003</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9">
-        <v>42999</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="9">
-        <v>42999</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>26</v>
-      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="B6" s="10"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="B7" s="10"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1015,9 +699,6 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
